--- a/template/2023/DesaKel only.xlsx
+++ b/template/2023/DesaKel only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\kcda-blanko-generator\template\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02BFC30-341C-4191-9589-74C616388E74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEABA2A4-776C-43BF-9387-021F25123077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="142">
   <si>
     <t>Jumlah RW</t>
   </si>
@@ -338,13 +338,7 @@
     <t xml:space="preserve">Kontak BPS: </t>
   </si>
   <si>
-    <t>Data per akhir Tahun 2021</t>
-  </si>
-  <si>
     <t>Banyaknya Rumah Menurut Sumber Penerangan Utama dan Desa/Kelurahan di Kecamatan, 2023</t>
-  </si>
-  <si>
-    <t>Data per akhir Tahun 2022</t>
   </si>
   <si>
     <t>1.1.1</t>
@@ -764,16 +758,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1093,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1099,7 @@
     <col min="4" max="4" width="30.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="10" width="18" customWidth="1"/>
+    <col min="8" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1147,13 +1141,13 @@
       <c r="D3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="E3" s="30">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="32">
+        <v>2021</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1163,23 +1157,21 @@
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="10" t="s">
         <v>91</v>
@@ -1187,18 +1179,16 @@
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="10">
         <v>0</v>
@@ -1211,9 +1201,7 @@
       <c r="D7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="10">
         <v>0</v>
@@ -1221,18 +1209,16 @@
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="10">
         <v>0</v>
@@ -1245,9 +1231,7 @@
       <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="7">
-        <v>4</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="10">
         <v>5</v>
@@ -1255,18 +1239,16 @@
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="7">
-        <v>5</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="10">
         <v>1</v>
@@ -1279,9 +1261,7 @@
       <c r="D11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="7">
-        <v>6</v>
-      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="10">
         <v>1</v>
@@ -1294,9 +1274,7 @@
       <c r="D12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7">
-        <v>7</v>
-      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="10">
         <v>1</v>
@@ -1309,9 +1287,7 @@
       <c r="D13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="7">
-        <v>8</v>
-      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="10">
         <v>5</v>
@@ -1324,9 +1300,7 @@
       <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="7">
-        <v>9</v>
-      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="10">
         <v>0</v>
@@ -1339,9 +1313,7 @@
       <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="7">
-        <v>10</v>
-      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="10">
         <v>20</v>
@@ -1349,18 +1321,16 @@
     </row>
     <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="7">
-        <v>11</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="10">
         <v>10</v>
@@ -1371,11 +1341,9 @@
       <c r="B17" s="23"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="7">
-        <v>12</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="10">
         <v>100</v>
@@ -1383,18 +1351,16 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="7">
-        <v>13</v>
-      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="11">
         <v>3000</v>
@@ -1409,9 +1375,7 @@
       <c r="D19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="7">
-        <v>14</v>
-      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="11">
         <v>1700</v>
@@ -1424,9 +1388,7 @@
       <c r="D20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="7">
-        <v>15</v>
-      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="11">
         <v>1300</v>
@@ -1434,18 +1396,16 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="7">
-        <v>16</v>
-      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="10">
         <v>750</v>
@@ -1453,18 +1413,16 @@
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="7">
-        <v>17</v>
-      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="10">
         <v>1</v>
@@ -1477,9 +1435,7 @@
       <c r="D23" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="7">
-        <v>18</v>
-      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="10">
         <v>0</v>
@@ -1487,18 +1443,16 @@
     </row>
     <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="7">
-        <v>19</v>
-      </c>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="10">
         <v>1</v>
@@ -1511,9 +1465,7 @@
       <c r="D25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="7">
-        <v>20</v>
-      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="10">
         <v>0</v>
@@ -1521,18 +1473,16 @@
     </row>
     <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="7">
-        <v>26</v>
-      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="11">
         <v>2890</v>
@@ -1545,9 +1495,7 @@
       <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="7">
-        <v>27</v>
-      </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="10">
         <v>30</v>
@@ -1560,9 +1508,7 @@
       <c r="D28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="7">
-        <v>28</v>
-      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="10">
         <v>70</v>
@@ -1575,9 +1521,7 @@
       <c r="D29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="7">
-        <v>29</v>
-      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="10">
         <v>10</v>
@@ -1590,9 +1534,7 @@
       <c r="D30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="7">
-        <v>30</v>
-      </c>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="10">
         <v>0</v>
@@ -1605,9 +1547,7 @@
       <c r="D31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="7">
-        <v>31</v>
-      </c>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="10">
         <v>0</v>
@@ -1615,18 +1555,16 @@
     </row>
     <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="7">
-        <v>37</v>
-      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="10">
         <v>20</v>
@@ -1639,9 +1577,7 @@
       <c r="D33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="7">
-        <v>38</v>
-      </c>
+      <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="10">
         <v>15</v>
@@ -1654,9 +1590,7 @@
       <c r="D34" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="7">
-        <v>39</v>
-      </c>
+      <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="10">
         <v>120</v>
@@ -1669,9 +1603,7 @@
       <c r="D35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="7">
-        <v>40</v>
-      </c>
+      <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="10">
         <v>23</v>
@@ -1679,18 +1611,16 @@
     </row>
     <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="7">
-        <v>41</v>
-      </c>
+      <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="10">
         <v>5</v>
@@ -1703,9 +1633,7 @@
       <c r="D37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="7">
-        <v>42</v>
-      </c>
+      <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="10">
         <v>2</v>
@@ -1718,9 +1646,7 @@
       <c r="D38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="7">
-        <v>43</v>
-      </c>
+      <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="10">
         <v>17</v>
@@ -1733,9 +1659,7 @@
       <c r="D39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="7">
-        <v>44</v>
-      </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="10">
         <v>3</v>
@@ -1748,9 +1672,7 @@
       <c r="D40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="7">
-        <v>45</v>
-      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="10">
         <v>2</v>
@@ -1758,18 +1680,16 @@
     </row>
     <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="7">
-        <v>46</v>
-      </c>
+      <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="10">
         <v>11</v>
@@ -1782,9 +1702,7 @@
       <c r="D42" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="7">
-        <v>47</v>
-      </c>
+      <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="10">
         <v>4</v>
@@ -1797,9 +1715,7 @@
       <c r="D43" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="7">
-        <v>48</v>
-      </c>
+      <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="10">
         <v>2</v>
@@ -1807,10 +1723,10 @@
     </row>
     <row r="44" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>25</v>
@@ -1818,9 +1734,7 @@
       <c r="D44" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="7">
-        <v>49</v>
-      </c>
+      <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="10">
         <v>0</v>
@@ -1833,9 +1747,7 @@
       <c r="D45" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="7">
-        <v>50</v>
-      </c>
+      <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="10">
         <v>1</v>
@@ -1848,9 +1760,7 @@
       <c r="D46" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="7">
-        <v>51</v>
-      </c>
+      <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="10">
         <v>0</v>
@@ -1863,9 +1773,7 @@
       <c r="D47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="7">
-        <v>52</v>
-      </c>
+      <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="10">
         <v>2</v>
@@ -1878,9 +1786,7 @@
       <c r="D48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="7">
-        <v>53</v>
-      </c>
+      <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="10">
         <v>1</v>
@@ -1893,9 +1799,7 @@
       <c r="D49" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="7">
-        <v>54</v>
-      </c>
+      <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="10">
         <v>0</v>
@@ -1908,9 +1812,7 @@
       <c r="D50" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="7">
-        <v>55</v>
-      </c>
+      <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="10">
         <v>2</v>
@@ -1923,9 +1825,7 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="7">
-        <v>56</v>
-      </c>
+      <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="10">
         <v>1</v>
@@ -1940,9 +1840,7 @@
       <c r="D52" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="7">
-        <v>57</v>
-      </c>
+      <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="10">
         <v>0</v>
@@ -1955,9 +1853,7 @@
       <c r="D53" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="7">
-        <v>58</v>
-      </c>
+      <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="10">
         <v>2</v>
@@ -1970,9 +1866,7 @@
       <c r="D54" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="7">
-        <v>59</v>
-      </c>
+      <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="10">
         <v>3</v>
@@ -1980,18 +1874,16 @@
     </row>
     <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="7">
-        <v>60</v>
-      </c>
+      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="10">
         <v>700</v>
@@ -2004,9 +1896,7 @@
       <c r="D56" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="7">
-        <v>61</v>
-      </c>
+      <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="10">
         <v>2</v>
@@ -2014,18 +1904,16 @@
     </row>
     <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="7">
-        <v>62</v>
-      </c>
+      <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="10">
         <v>48</v>
@@ -2033,18 +1921,16 @@
     </row>
     <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="7">
-        <v>63</v>
-      </c>
+      <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="10">
         <v>38</v>
@@ -2057,9 +1943,7 @@
       <c r="D59" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="7">
-        <v>64</v>
-      </c>
+      <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="10">
         <v>712</v>
@@ -2067,18 +1951,16 @@
     </row>
     <row r="60" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="7">
-        <v>65</v>
-      </c>
+      <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="10">
         <v>733</v>
@@ -2091,45 +1973,37 @@
       <c r="D61" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="7">
-        <v>66</v>
-      </c>
+      <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>42</v>
-      </c>
+      <c r="A62" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" s="7">
-        <v>73</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="7">
-        <v>74</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="10">
         <v>0</v>
@@ -2137,20 +2011,16 @@
     </row>
     <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>42</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="7">
-        <v>75</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="10">
         <v>0</v>
@@ -2159,321 +2029,285 @@
     <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
-      <c r="C65" s="22" t="s">
-        <v>43</v>
-      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="7">
-        <v>76</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
-      <c r="C66" s="22"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="7">
-        <v>77</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="22"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="7">
-        <v>78</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="22" t="s">
-        <v>44</v>
+      <c r="A68" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="7">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="22"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="7">
-        <v>80</v>
-      </c>
+      <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
+      <c r="A70" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="D70" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E70" s="7">
-        <v>81</v>
-      </c>
+      <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="4"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="D71" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="7">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="10" t="s">
-        <v>86</v>
+      <c r="G71" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
-      <c r="C72" s="4"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E72" s="7">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="10" t="s">
-        <v>87</v>
+      <c r="G72" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
-      <c r="C73" s="4"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E73" s="7">
-        <v>85</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="10" t="s">
-        <v>88</v>
+      <c r="G73" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
-      <c r="C74" s="4"/>
+      <c r="C74" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="D74" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" s="7">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="4"/>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" s="7">
-        <v>87</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="10" t="s">
-        <v>90</v>
+      <c r="G75" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="4"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76" s="7">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
+      <c r="A77" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="C77" s="4"/>
       <c r="D77" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="7">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="10">
-        <v>0</v>
+      <c r="G77" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="4"/>
       <c r="D78" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E78" s="7">
-        <v>90</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="10">
-        <v>5</v>
+      <c r="G78" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="4"/>
       <c r="D79" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E79" s="7">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>131</v>
-      </c>
+      <c r="G79" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="4"/>
       <c r="D80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="7">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
+      <c r="G80" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="4"/>
       <c r="D81" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E81" s="7">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="10">
-        <v>1</v>
+      <c r="G81" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="C82" s="4"/>
       <c r="D82" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E82" s="7">
-        <v>94</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="4"/>
       <c r="D83" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" s="7">
-        <v>95</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="4"/>
       <c r="D84" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" s="7">
-        <v>67</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2481,33 +2315,29 @@
       <c r="B85" s="23"/>
       <c r="C85" s="4"/>
       <c r="D85" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="7">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="7">
-        <v>69</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2515,14 +2345,12 @@
       <c r="B87" s="20"/>
       <c r="C87" s="4"/>
       <c r="D87" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E87" s="7">
-        <v>70</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,29 +2358,25 @@
       <c r="B88" s="20"/>
       <c r="C88" s="4"/>
       <c r="D88" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E88" s="7">
-        <v>71</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="4"/>
       <c r="D89" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" s="7">
-        <v>72</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2594,27 +2418,27 @@
     <mergeCell ref="C44:C51"/>
     <mergeCell ref="B44:B54"/>
     <mergeCell ref="A44:A54"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
